--- a/NyilvWebApi/file0.xlsx
+++ b/NyilvWebApi/file0.xlsx
@@ -2,51 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TG\BME-Cubby\DotnetHF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dokumentumok" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="Dokumentumok">Dokumentumok!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
-    <t>Béla</t>
+    <t>ÁFA</t>
   </si>
   <si>
-    <t>Mari</t>
+    <t>Bér</t>
   </si>
   <si>
-    <t>Kft</t>
+    <t>Iparűzési</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>index.hu</t>
-  </si>
-  <si>
-    <t>Lajos</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
-    <t>ZZ</t>
-  </si>
-  <si>
-    <t>Bt</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>megjegyzés</t>
   </si>
 </sst>
 </file>
@@ -84,15 +71,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,80 +376,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1">
+        <v>42064</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42065</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1">
+        <v>42066</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42067</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D7" s="1">
+        <v>42070</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>102</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42071</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42072</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D10" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>103</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D11" s="1">
+        <v>42074</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D12" s="1">
+        <v>42075</v>
+      </c>
+      <c r="E12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/NyilvWebApi/file0.xlsx
+++ b/NyilvWebApi/file0.xlsx
@@ -30,10 +30,10 @@
     <t>Bér</t>
   </si>
   <si>
-    <t>Iparűzési</t>
+    <t>megjegyzés</t>
   </si>
   <si>
-    <t>megjegyzés</t>
+    <t>Iparűzési adó</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,10 +392,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -404,15 +404,15 @@
         <v>42064</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -421,15 +421,15 @@
         <v>42065</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -438,15 +438,15 @@
         <v>42066</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -455,15 +455,15 @@
         <v>42067</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -472,15 +472,15 @@
         <v>42068</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -489,32 +489,32 @@
         <v>42069</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>42070</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -523,32 +523,32 @@
         <v>42071</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>42072</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -557,15 +557,15 @@
         <v>42073</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -574,24 +574,24 @@
         <v>42074</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>42075</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
